--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3336.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3336.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.105507931978819</v>
+        <v>1.480892062187195</v>
       </c>
       <c r="B1">
-        <v>2.654960336417274</v>
+        <v>4.160904407501221</v>
       </c>
       <c r="C1">
-        <v>8.442217587437604</v>
+        <v>3.523420810699463</v>
       </c>
       <c r="D1">
-        <v>2.218988123486632</v>
+        <v>1.865121126174927</v>
       </c>
       <c r="E1">
-        <v>1.26697402552215</v>
+        <v>0.6341943740844727</v>
       </c>
     </row>
   </sheetData>
